--- a/Code/Results/Cases/Case_4_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.659444714252572</v>
+        <v>1.289457048391455</v>
       </c>
       <c r="C2">
-        <v>0.6959177795889673</v>
+        <v>0.2136032845924944</v>
       </c>
       <c r="D2">
-        <v>0.1989447090360983</v>
+        <v>0.07782535456573214</v>
       </c>
       <c r="E2">
-        <v>0.0380386932958654</v>
+        <v>0.07189710192061671</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.604762049467411</v>
+        <v>1.545392280339001</v>
       </c>
       <c r="H2">
-        <v>0.9431343961469736</v>
+        <v>1.346608427783679</v>
       </c>
       <c r="I2">
-        <v>0.8915355396693414</v>
+        <v>1.260926226027763</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1717174842660683</v>
+        <v>0.2167030269477337</v>
       </c>
       <c r="M2">
-        <v>0.4485787373101289</v>
+        <v>0.2805339692929323</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.302012546427022</v>
+        <v>1.195635153182423</v>
       </c>
       <c r="C3">
-        <v>0.6060332723380952</v>
+        <v>0.186938350766269</v>
       </c>
       <c r="D3">
-        <v>0.1717759421942162</v>
+        <v>0.07067906780041255</v>
       </c>
       <c r="E3">
-        <v>0.03781585276010802</v>
+        <v>0.07184808947746646</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.461006992139517</v>
+        <v>1.520122562408119</v>
       </c>
       <c r="H3">
-        <v>0.8854003573270006</v>
+        <v>1.341485981974557</v>
       </c>
       <c r="I3">
-        <v>0.8481457055703814</v>
+        <v>1.258944554460683</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1557179402685449</v>
+        <v>0.2139232786851082</v>
       </c>
       <c r="M3">
-        <v>0.3900266277743114</v>
+        <v>0.2660462923370659</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.084810748775624</v>
+        <v>1.138598068501608</v>
       </c>
       <c r="C4">
-        <v>0.5513231918398844</v>
+        <v>0.1705102972586587</v>
       </c>
       <c r="D4">
-        <v>0.1553690204779485</v>
+        <v>0.06633182752599964</v>
       </c>
       <c r="E4">
-        <v>0.03768809486655922</v>
+        <v>0.07182008781319738</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.376639954992783</v>
+        <v>1.505706581488084</v>
       </c>
       <c r="H4">
-        <v>0.8520520479673053</v>
+        <v>1.33910567828778</v>
       </c>
       <c r="I4">
-        <v>0.8236747208043127</v>
+        <v>1.258477166854803</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1461598038287732</v>
+        <v>0.2123293458799722</v>
       </c>
       <c r="M4">
-        <v>0.3545409511122557</v>
+        <v>0.2572953244346152</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.99678157890645</v>
+        <v>1.115498450131099</v>
       </c>
       <c r="C5">
-        <v>0.5291238108806908</v>
+        <v>0.1638014751106311</v>
       </c>
       <c r="D5">
-        <v>0.148742905994709</v>
+        <v>0.06457037067971783</v>
       </c>
       <c r="E5">
-        <v>0.03763812584477089</v>
+        <v>0.07180920367668531</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.343150571879505</v>
+        <v>1.500106900764507</v>
       </c>
       <c r="H5">
-        <v>0.8389488674620225</v>
+        <v>1.338327434155985</v>
       </c>
       <c r="I5">
-        <v>0.8142070416760703</v>
+        <v>1.258474422004475</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1423257945151448</v>
+        <v>0.2117081644317409</v>
       </c>
       <c r="M5">
-        <v>0.3401819801744921</v>
+        <v>0.2537655810910024</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.982191130125557</v>
+        <v>1.111671445380409</v>
       </c>
       <c r="C6">
-        <v>0.5254426885806254</v>
+        <v>0.1626866118544399</v>
       </c>
       <c r="D6">
-        <v>0.1476460014619363</v>
+        <v>0.06427848700545269</v>
       </c>
       <c r="E6">
-        <v>0.03762994989110924</v>
+        <v>0.07180742821163255</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.337641001489288</v>
+        <v>1.499193637958854</v>
       </c>
       <c r="H6">
-        <v>0.8368013208067282</v>
+        <v>1.338209771260154</v>
       </c>
       <c r="I6">
-        <v>0.8126642579615577</v>
+        <v>1.258485283135983</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1416926838834058</v>
+        <v>0.2116067300955962</v>
       </c>
       <c r="M6">
-        <v>0.3378034027813683</v>
+        <v>0.2531816654446928</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.083621713257401</v>
+        <v>1.138285957914093</v>
       </c>
       <c r="C7">
-        <v>0.5510234485686567</v>
+        <v>0.170419877793563</v>
       </c>
       <c r="D7">
-        <v>0.1552794278226912</v>
+        <v>0.06630803126626006</v>
       </c>
       <c r="E7">
-        <v>0.03768741272266984</v>
+        <v>0.07181993889171379</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.37618481180516</v>
+        <v>1.50562995108632</v>
       </c>
       <c r="H7">
-        <v>0.8518734167413129</v>
+        <v>1.339094407027005</v>
       </c>
       <c r="I7">
-        <v>0.8235450462741909</v>
+        <v>1.258476370725745</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1461078573537122</v>
+        <v>0.2123208536053909</v>
       </c>
       <c r="M7">
-        <v>0.3543469084989894</v>
+        <v>0.2572475739032427</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.535677888876762</v>
+        <v>1.256989012852671</v>
       </c>
       <c r="C8">
-        <v>0.6648102983205035</v>
+        <v>0.2044206073989585</v>
       </c>
       <c r="D8">
-        <v>0.189514070098852</v>
+        <v>0.07535280428193403</v>
       </c>
       <c r="E8">
-        <v>0.0379598569083992</v>
+        <v>0.0718797685498167</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.554329860686096</v>
+        <v>1.536450065246299</v>
       </c>
       <c r="H8">
-        <v>0.9227655741348428</v>
+        <v>1.344683092211369</v>
       </c>
       <c r="I8">
-        <v>0.8760983168632706</v>
+        <v>1.26008698020722</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1661420774102211</v>
+        <v>0.2157211373879591</v>
       </c>
       <c r="M8">
-        <v>0.4282837083789062</v>
+        <v>0.275508618933479</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.444457970440567</v>
+        <v>1.494295980468962</v>
       </c>
       <c r="C9">
-        <v>0.8930099050540719</v>
+        <v>0.2706690688480933</v>
       </c>
       <c r="D9">
-        <v>0.2592893955811348</v>
+        <v>0.09341872510248095</v>
       </c>
       <c r="E9">
-        <v>0.03857573616305743</v>
+        <v>0.07201368130538555</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.939056220841223</v>
+        <v>1.605690676117149</v>
       </c>
       <c r="H9">
-        <v>1.080521510331067</v>
+        <v>1.361740584140364</v>
       </c>
       <c r="I9">
-        <v>0.9984253981970213</v>
+        <v>1.269225220529236</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2078242924835507</v>
+        <v>0.2232858644346436</v>
       </c>
       <c r="M9">
-        <v>0.5777339438362219</v>
+        <v>0.3124673864516794</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132510773647994</v>
+        <v>1.67144045059041</v>
       </c>
       <c r="C10">
-        <v>1.065728614499562</v>
+        <v>0.3191070044301796</v>
       </c>
       <c r="D10">
-        <v>0.3128784602720032</v>
+        <v>0.1069034015453099</v>
       </c>
       <c r="E10">
-        <v>0.03909372258070842</v>
+        <v>0.07212218490540856</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.250177293818524</v>
+        <v>1.662041298714314</v>
       </c>
       <c r="H10">
-        <v>1.21105446295897</v>
+        <v>1.378033737584076</v>
       </c>
       <c r="I10">
-        <v>1.10321461567213</v>
+        <v>1.279634025894978</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.240352879344826</v>
+        <v>0.229393308477583</v>
       </c>
       <c r="M10">
-        <v>0.6914476135780419</v>
+        <v>0.340327909052796</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.451677527913262</v>
+        <v>1.752643861237857</v>
       </c>
       <c r="C11">
-        <v>1.145909027127715</v>
+        <v>0.3410975400236111</v>
       </c>
       <c r="D11">
-        <v>0.3379443027970694</v>
+        <v>0.1130863538956248</v>
       </c>
       <c r="E11">
-        <v>0.03934786924493672</v>
+        <v>0.07217374760877249</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.39965246207197</v>
+        <v>1.68889145399416</v>
       </c>
       <c r="H11">
-        <v>1.274432427490183</v>
+        <v>1.386272233458044</v>
       </c>
       <c r="I11">
-        <v>1.154931682784721</v>
+        <v>1.285182447387314</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2556771058719818</v>
+        <v>0.232291805849357</v>
       </c>
       <c r="M11">
-        <v>0.7443324967327243</v>
+        <v>0.3531575723979898</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.573588668323794</v>
+        <v>1.783482898304555</v>
       </c>
       <c r="C12">
-        <v>1.176551273656145</v>
+        <v>0.3494188199234145</v>
       </c>
       <c r="D12">
-        <v>0.3475522743298995</v>
+        <v>0.1154348530633342</v>
       </c>
       <c r="E12">
-        <v>0.03944720046182404</v>
+        <v>0.07219359015501237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.457565067744952</v>
+        <v>1.699235655708094</v>
       </c>
       <c r="H12">
-        <v>1.299085093695396</v>
+        <v>1.389511540660862</v>
       </c>
       <c r="I12">
-        <v>1.17517473499295</v>
+        <v>1.287401300066648</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.261566379262149</v>
+        <v>0.2334067158074191</v>
       </c>
       <c r="M12">
-        <v>0.7645536472479932</v>
+        <v>0.3580383061836585</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.547283432996551</v>
+        <v>1.776837198495684</v>
       </c>
       <c r="C13">
-        <v>1.169938644663233</v>
+        <v>0.3476269482370071</v>
       </c>
       <c r="D13">
-        <v>0.3454775669687109</v>
+        <v>0.114928741446704</v>
       </c>
       <c r="E13">
-        <v>0.03942566260287794</v>
+        <v>0.07218930261435563</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.445031418690945</v>
+        <v>1.696999962703302</v>
       </c>
       <c r="H13">
-        <v>1.293745320832159</v>
+        <v>1.388808568952555</v>
       </c>
       <c r="I13">
-        <v>1.170784399042716</v>
+        <v>1.28691817877889</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2602939978592644</v>
+        <v>0.233165829577004</v>
       </c>
       <c r="M13">
-        <v>0.7601895044468137</v>
+        <v>0.3569861554021969</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.46168519099848</v>
+        <v>1.755179222305742</v>
       </c>
       <c r="C14">
-        <v>1.148424079929555</v>
+        <v>0.3417822564885</v>
       </c>
       <c r="D14">
-        <v>0.3387323241124989</v>
+        <v>0.1132794222135374</v>
       </c>
       <c r="E14">
-        <v>0.0393559766113718</v>
+        <v>0.0721753737162425</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.404389688039231</v>
+        <v>1.689738927545903</v>
       </c>
       <c r="H14">
-        <v>1.276447052643164</v>
+        <v>1.386536332894252</v>
       </c>
       <c r="I14">
-        <v>1.156583410773379</v>
+        <v>1.285362628417644</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2561598249015731</v>
+        <v>0.2323831830372427</v>
       </c>
       <c r="M14">
-        <v>0.7459920228279771</v>
+        <v>0.353558663873315</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.409395658758797</v>
+        <v>1.741924685847437</v>
       </c>
       <c r="C15">
-        <v>1.135283744922418</v>
+        <v>0.3382014336327472</v>
       </c>
       <c r="D15">
-        <v>0.3346163305473198</v>
+        <v>0.1122701019580177</v>
       </c>
       <c r="E15">
-        <v>0.03931370848528459</v>
+        <v>0.07216688313033703</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.379671322092946</v>
+        <v>1.685314389250948</v>
       </c>
       <c r="H15">
-        <v>1.265938857768504</v>
+        <v>1.385160114669191</v>
       </c>
       <c r="I15">
-        <v>1.147973149755344</v>
+        <v>1.284425172505976</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2536391012355921</v>
+        <v>0.2319060448287331</v>
       </c>
       <c r="M15">
-        <v>0.737321930822695</v>
+        <v>0.3514621465706398</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.111790048365947</v>
+        <v>1.666146080634803</v>
       </c>
       <c r="C16">
-        <v>1.060525008430943</v>
+        <v>0.3176690076358</v>
       </c>
       <c r="D16">
-        <v>0.311255610982144</v>
+        <v>0.1065003235488575</v>
       </c>
       <c r="E16">
-        <v>0.03907752112525031</v>
+        <v>0.07211885950265096</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.24058243139109</v>
+        <v>1.660311197908015</v>
       </c>
       <c r="H16">
-        <v>1.206999454543904</v>
+        <v>1.377512026262394</v>
       </c>
       <c r="I16">
-        <v>1.099922593810149</v>
+        <v>1.279287861197432</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2393628811452828</v>
+        <v>0.2292063058168026</v>
       </c>
       <c r="M16">
-        <v>0.6880170869501399</v>
+        <v>0.3394925964115245</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.930908056569706</v>
+        <v>1.619817009088251</v>
       </c>
       <c r="C17">
-        <v>1.015107639297781</v>
+        <v>0.3050619295579224</v>
       </c>
       <c r="D17">
-        <v>0.2971123270400113</v>
+        <v>0.1029733290261845</v>
       </c>
       <c r="E17">
-        <v>0.03893765318488374</v>
+        <v>0.07208996296027337</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.157403326151467</v>
+        <v>1.645285249460045</v>
       </c>
       <c r="H17">
-        <v>1.171918472217101</v>
+        <v>1.373032391418946</v>
       </c>
       <c r="I17">
-        <v>1.07153368201557</v>
+        <v>1.276345200783254</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.230746948281066</v>
+        <v>0.2275809070082317</v>
       </c>
       <c r="M17">
-        <v>0.6580854950799093</v>
+        <v>0.3321895738710055</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.827439249772851</v>
+        <v>1.593228062015783</v>
       </c>
       <c r="C18">
-        <v>0.9891330683525723</v>
+        <v>0.2978065009430111</v>
       </c>
       <c r="D18">
-        <v>0.2890410911713133</v>
+        <v>0.1009492706449606</v>
       </c>
       <c r="E18">
-        <v>0.03885891776310668</v>
+        <v>0.07207354986773318</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.110297546751013</v>
+        <v>1.636757067837351</v>
       </c>
       <c r="H18">
-        <v>1.15211192231132</v>
+        <v>1.370533591046041</v>
       </c>
       <c r="I18">
-        <v>1.055581022262515</v>
+        <v>1.274729172494858</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2258401760996236</v>
+        <v>0.2266573317028389</v>
       </c>
       <c r="M18">
-        <v>0.6409765383399275</v>
+        <v>0.3280037290083584</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.792499703042836</v>
+        <v>1.584235517110869</v>
       </c>
       <c r="C19">
-        <v>0.9803626258283487</v>
+        <v>0.295349212545716</v>
       </c>
       <c r="D19">
-        <v>0.2863187442654436</v>
+        <v>0.1002647407096049</v>
       </c>
       <c r="E19">
-        <v>0.03883254153404714</v>
+        <v>0.07206802830699299</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.09447009357379</v>
+        <v>1.633889157285438</v>
       </c>
       <c r="H19">
-        <v>1.145467281743095</v>
+        <v>1.369700875662403</v>
       </c>
       <c r="I19">
-        <v>1.05024209465877</v>
+        <v>1.274195129220956</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2241869211444794</v>
+        <v>0.2263465668135893</v>
       </c>
       <c r="M19">
-        <v>0.6352012850978923</v>
+        <v>0.3265889913282791</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.950103173028822</v>
+        <v>1.624742783246063</v>
       </c>
       <c r="C20">
-        <v>1.019926717942525</v>
+        <v>0.306404404134355</v>
       </c>
       <c r="D20">
-        <v>0.2986112029418138</v>
+        <v>0.103348309006293</v>
       </c>
       <c r="E20">
-        <v>0.03895236219735221</v>
+        <v>0.07209301757793796</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.166180498450331</v>
+        <v>1.646872940097381</v>
       </c>
       <c r="H20">
-        <v>1.175613960904457</v>
+        <v>1.373501202613284</v>
       </c>
       <c r="I20">
-        <v>1.074516299985575</v>
+        <v>1.276650527398033</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2316589970545238</v>
+        <v>0.2277527626271336</v>
       </c>
       <c r="M20">
-        <v>0.6612605040463109</v>
+        <v>0.3329654756563585</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.486797586265936</v>
+        <v>1.761538277607144</v>
       </c>
       <c r="C21">
-        <v>1.154735423892106</v>
+        <v>0.3434991462462733</v>
       </c>
       <c r="D21">
-        <v>0.3407102677444414</v>
+        <v>0.113763672055498</v>
       </c>
       <c r="E21">
-        <v>0.03937635739650425</v>
+        <v>0.07217945637133028</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.416290170359815</v>
+        <v>1.691866861673731</v>
       </c>
       <c r="H21">
-        <v>1.281509586551294</v>
+        <v>1.387200493101233</v>
       </c>
       <c r="I21">
-        <v>1.160736042254513</v>
+        <v>1.28581632803531</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2573716984851728</v>
+        <v>0.232612595222335</v>
       </c>
       <c r="M21">
-        <v>0.7501566355291089</v>
+        <v>0.354564792605828</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.843767056700415</v>
+        <v>1.851461211249216</v>
       </c>
       <c r="C22">
-        <v>1.244497886467173</v>
+        <v>0.3677075279857149</v>
       </c>
       <c r="D22">
-        <v>0.3689106025325941</v>
+        <v>0.1206124542225382</v>
       </c>
       <c r="E22">
-        <v>0.03967173564697468</v>
+        <v>0.07223779613758197</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.58747805107339</v>
+        <v>1.722303360986558</v>
       </c>
       <c r="H22">
-        <v>1.354567091794763</v>
+        <v>1.396851030146053</v>
       </c>
       <c r="I22">
-        <v>1.220969194753337</v>
+        <v>1.292493638716664</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2746854320049579</v>
+        <v>0.2358896980829854</v>
       </c>
       <c r="M22">
-        <v>0.8094066960840891</v>
+        <v>0.3688118806351213</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.652618454972526</v>
+        <v>1.803420142231573</v>
       </c>
       <c r="C23">
-        <v>1.196420729091159</v>
+        <v>0.3547901812487453</v>
       </c>
       <c r="D23">
-        <v>0.3537905296682311</v>
+        <v>0.1169532625274599</v>
       </c>
       <c r="E23">
-        <v>0.03951225337469833</v>
+        <v>0.0722064900896271</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.495343965430664</v>
+        <v>1.705963960006159</v>
       </c>
       <c r="H23">
-        <v>1.315194393584221</v>
+        <v>1.39163632630715</v>
       </c>
       <c r="I23">
-        <v>1.188438311532181</v>
+        <v>1.288866706123699</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2653943629324402</v>
+        <v>0.2341314024778569</v>
       </c>
       <c r="M23">
-        <v>0.7776680948932864</v>
+        <v>0.3611959763121959</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.9414234449427</v>
+        <v>1.622515696677283</v>
       </c>
       <c r="C24">
-        <v>1.017747590943088</v>
+        <v>0.3057974946164563</v>
       </c>
       <c r="D24">
-        <v>0.297933375758447</v>
+        <v>0.1031787691775463</v>
       </c>
       <c r="E24">
-        <v>0.03894570706225853</v>
+        <v>0.07209163596286672</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.162210124168041</v>
+        <v>1.646154801298167</v>
       </c>
       <c r="H24">
-        <v>1.173942108765459</v>
+        <v>1.373289014511641</v>
       </c>
       <c r="I24">
-        <v>1.07316671628044</v>
+        <v>1.276512253350688</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.231246515305898</v>
+        <v>0.2276750327900317</v>
       </c>
       <c r="M24">
-        <v>0.6598247758881755</v>
+        <v>0.3326146507154775</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.195565693555636</v>
+        <v>1.429609820719406</v>
       </c>
       <c r="C25">
-        <v>0.8305433208019224</v>
+        <v>0.2527902012148218</v>
       </c>
       <c r="D25">
-        <v>0.2400612796904795</v>
+        <v>0.08849504718347134</v>
       </c>
       <c r="E25">
-        <v>0.03839890225222931</v>
+        <v>0.07197567837735352</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.830522365914675</v>
+        <v>1.586005214025107</v>
       </c>
       <c r="H25">
-        <v>1.035528080050312</v>
+        <v>1.356468766955004</v>
       </c>
       <c r="I25">
-        <v>0.962962899655885</v>
+        <v>1.26610780338283</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1962485778240008</v>
+        <v>0.2211430998897512</v>
       </c>
       <c r="M25">
-        <v>0.5367105998336541</v>
+        <v>0.3023454069628286</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.289457048391455</v>
+        <v>2.659444714252572</v>
       </c>
       <c r="C2">
-        <v>0.2136032845924944</v>
+        <v>0.6959177795888536</v>
       </c>
       <c r="D2">
-        <v>0.07782535456573214</v>
+        <v>0.1989447090360841</v>
       </c>
       <c r="E2">
-        <v>0.07189710192061671</v>
+        <v>0.03803869329587206</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.545392280339001</v>
+        <v>1.604762049467467</v>
       </c>
       <c r="H2">
-        <v>1.346608427783679</v>
+        <v>0.9431343961468315</v>
       </c>
       <c r="I2">
-        <v>1.260926226027763</v>
+        <v>0.8915355396693414</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2167030269477337</v>
+        <v>0.1717174842660327</v>
       </c>
       <c r="M2">
-        <v>0.2805339692929323</v>
+        <v>0.4485787373101147</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.195635153182423</v>
+        <v>2.302012546427136</v>
       </c>
       <c r="C3">
-        <v>0.186938350766269</v>
+        <v>0.6060332723380952</v>
       </c>
       <c r="D3">
-        <v>0.07067906780041255</v>
+        <v>0.1717759421944436</v>
       </c>
       <c r="E3">
-        <v>0.07184808947746646</v>
+        <v>0.03781585276016397</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.520122562408119</v>
+        <v>1.461006992139517</v>
       </c>
       <c r="H3">
-        <v>1.341485981974557</v>
+        <v>0.885400357327029</v>
       </c>
       <c r="I3">
-        <v>1.258944554460683</v>
+        <v>0.8481457055704098</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2139232786851082</v>
+        <v>0.1557179402684596</v>
       </c>
       <c r="M3">
-        <v>0.2660462923370659</v>
+        <v>0.3900266277742972</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.138598068501608</v>
+        <v>2.084810748775737</v>
       </c>
       <c r="C4">
-        <v>0.1705102972586587</v>
+        <v>0.5513231918396571</v>
       </c>
       <c r="D4">
-        <v>0.06633182752599964</v>
+        <v>0.1553690204779059</v>
       </c>
       <c r="E4">
-        <v>0.07182008781319738</v>
+        <v>0.03768809486655211</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.505706581488084</v>
+        <v>1.376639954992783</v>
       </c>
       <c r="H4">
-        <v>1.33910567828778</v>
+        <v>0.8520520479672768</v>
       </c>
       <c r="I4">
-        <v>1.258477166854803</v>
+        <v>0.8236747208043127</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2123293458799722</v>
+        <v>0.1461598038288869</v>
       </c>
       <c r="M4">
-        <v>0.2572953244346152</v>
+        <v>0.3545409511122557</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.115498450131099</v>
+        <v>1.99678157890645</v>
       </c>
       <c r="C5">
-        <v>0.1638014751106311</v>
+        <v>0.5291238108808614</v>
       </c>
       <c r="D5">
-        <v>0.06457037067971783</v>
+        <v>0.1487429059946948</v>
       </c>
       <c r="E5">
-        <v>0.07180920367668531</v>
+        <v>0.03763812584476733</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.500106900764507</v>
+        <v>1.343150571879505</v>
       </c>
       <c r="H5">
-        <v>1.338327434155985</v>
+        <v>0.8389488674620509</v>
       </c>
       <c r="I5">
-        <v>1.258474422004475</v>
+        <v>0.8142070416760987</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2117081644317409</v>
+        <v>0.1423257945150738</v>
       </c>
       <c r="M5">
-        <v>0.2537655810910024</v>
+        <v>0.3401819801744921</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.111671445380409</v>
+        <v>1.9821911301255</v>
       </c>
       <c r="C6">
-        <v>0.1626866118544399</v>
+        <v>0.5254426885806254</v>
       </c>
       <c r="D6">
-        <v>0.06427848700545269</v>
+        <v>0.1476460014618795</v>
       </c>
       <c r="E6">
-        <v>0.07180742821163255</v>
+        <v>0.037629949891123</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.499193637958854</v>
+        <v>1.337641001489231</v>
       </c>
       <c r="H6">
-        <v>1.338209771260154</v>
+        <v>0.8368013208068419</v>
       </c>
       <c r="I6">
-        <v>1.258485283135983</v>
+        <v>0.8126642579615364</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2116067300955962</v>
+        <v>0.1416926838833703</v>
       </c>
       <c r="M6">
-        <v>0.2531816654446928</v>
+        <v>0.3378034027813612</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.138285957914093</v>
+        <v>2.083621713257344</v>
       </c>
       <c r="C7">
-        <v>0.170419877793563</v>
+        <v>0.5510234485683725</v>
       </c>
       <c r="D7">
-        <v>0.06630803126626006</v>
+        <v>0.1552794278227907</v>
       </c>
       <c r="E7">
-        <v>0.07181993889171379</v>
+        <v>0.03768741272266141</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.50562995108632</v>
+        <v>1.376184811805132</v>
       </c>
       <c r="H7">
-        <v>1.339094407027005</v>
+        <v>0.8518734167414266</v>
       </c>
       <c r="I7">
-        <v>1.258476370725745</v>
+        <v>0.823545046274198</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2123208536053909</v>
+        <v>0.1461078573537904</v>
       </c>
       <c r="M7">
-        <v>0.2572475739032427</v>
+        <v>0.3543469084989823</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.256989012852671</v>
+        <v>2.535677888876648</v>
       </c>
       <c r="C8">
-        <v>0.2044206073989585</v>
+        <v>0.6648102983205035</v>
       </c>
       <c r="D8">
-        <v>0.07535280428193403</v>
+        <v>0.1895140700986246</v>
       </c>
       <c r="E8">
-        <v>0.0718797685498167</v>
+        <v>0.03795985690839476</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.536450065246299</v>
+        <v>1.554329860686096</v>
       </c>
       <c r="H8">
-        <v>1.344683092211369</v>
+        <v>0.9227655741348144</v>
       </c>
       <c r="I8">
-        <v>1.26008698020722</v>
+        <v>0.8760983168632777</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2157211373879591</v>
+        <v>0.166142077410278</v>
       </c>
       <c r="M8">
-        <v>0.275508618933479</v>
+        <v>0.4282837083789062</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.494295980468962</v>
+        <v>3.444457970440567</v>
       </c>
       <c r="C9">
-        <v>0.2706690688480933</v>
+        <v>0.8930099050544413</v>
       </c>
       <c r="D9">
-        <v>0.09341872510248095</v>
+        <v>0.2592893955812485</v>
       </c>
       <c r="E9">
-        <v>0.07201368130538555</v>
+        <v>0.03857573616306276</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.605690676117149</v>
+        <v>1.939056220841195</v>
       </c>
       <c r="H9">
-        <v>1.361740584140364</v>
+        <v>1.080521510331039</v>
       </c>
       <c r="I9">
-        <v>1.269225220529236</v>
+        <v>0.9984253981970284</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2232858644346436</v>
+        <v>0.2078242924834939</v>
       </c>
       <c r="M9">
-        <v>0.3124673864516794</v>
+        <v>0.5777339438362361</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.67144045059041</v>
+        <v>4.13251077364805</v>
       </c>
       <c r="C10">
-        <v>0.3191070044301796</v>
+        <v>1.065728614499619</v>
       </c>
       <c r="D10">
-        <v>0.1069034015453099</v>
+        <v>0.3128784602720174</v>
       </c>
       <c r="E10">
-        <v>0.07212218490540856</v>
+        <v>0.03909372258070842</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.662041298714314</v>
+        <v>2.250177293818581</v>
       </c>
       <c r="H10">
-        <v>1.378033737584076</v>
+        <v>1.211054462958998</v>
       </c>
       <c r="I10">
-        <v>1.279634025894978</v>
+        <v>1.10321461567213</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.229393308477583</v>
+        <v>0.2403528793449254</v>
       </c>
       <c r="M10">
-        <v>0.340327909052796</v>
+        <v>0.691447613578049</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.752643861237857</v>
+        <v>4.451677527913318</v>
       </c>
       <c r="C11">
-        <v>0.3410975400236111</v>
+        <v>1.145909027127431</v>
       </c>
       <c r="D11">
-        <v>0.1130863538956248</v>
+        <v>0.3379443027972826</v>
       </c>
       <c r="E11">
-        <v>0.07217374760877249</v>
+        <v>0.03934786924493228</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.68889145399416</v>
+        <v>2.39965246207197</v>
       </c>
       <c r="H11">
-        <v>1.386272233458044</v>
+        <v>1.274432427490183</v>
       </c>
       <c r="I11">
-        <v>1.285182447387314</v>
+        <v>1.154931682784706</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.232291805849357</v>
+        <v>0.2556771058719107</v>
       </c>
       <c r="M11">
-        <v>0.3531575723979898</v>
+        <v>0.7443324967327385</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.783482898304555</v>
+        <v>4.57358866832385</v>
       </c>
       <c r="C12">
-        <v>0.3494188199234145</v>
+        <v>1.176551273655946</v>
       </c>
       <c r="D12">
-        <v>0.1154348530633342</v>
+        <v>0.3475522743297574</v>
       </c>
       <c r="E12">
-        <v>0.07219359015501237</v>
+        <v>0.03944720046187999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.699235655708094</v>
+        <v>2.457565067744895</v>
       </c>
       <c r="H12">
-        <v>1.389511540660862</v>
+        <v>1.299085093695368</v>
       </c>
       <c r="I12">
-        <v>1.287401300066648</v>
+        <v>1.17517473499295</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2334067158074191</v>
+        <v>0.2615663792620779</v>
       </c>
       <c r="M12">
-        <v>0.3580383061836585</v>
+        <v>0.7645536472479932</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.776837198495684</v>
+        <v>4.547283432996437</v>
       </c>
       <c r="C13">
-        <v>0.3476269482370071</v>
+        <v>1.169938644663233</v>
       </c>
       <c r="D13">
-        <v>0.114928741446704</v>
+        <v>0.3454775669684835</v>
       </c>
       <c r="E13">
-        <v>0.07218930261435563</v>
+        <v>0.0394256626028735</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.696999962703302</v>
+        <v>2.445031418690917</v>
       </c>
       <c r="H13">
-        <v>1.388808568952555</v>
+        <v>1.293745320832045</v>
       </c>
       <c r="I13">
-        <v>1.28691817877889</v>
+        <v>1.170784399042731</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.233165829577004</v>
+        <v>0.2602939978591792</v>
       </c>
       <c r="M13">
-        <v>0.3569861554021969</v>
+        <v>0.7601895044468066</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.755179222305742</v>
+        <v>4.461685190998423</v>
       </c>
       <c r="C14">
-        <v>0.3417822564885</v>
+        <v>1.148424079929754</v>
       </c>
       <c r="D14">
-        <v>0.1132794222135374</v>
+        <v>0.3387323241125983</v>
       </c>
       <c r="E14">
-        <v>0.0721753737162425</v>
+        <v>0.03935597661137979</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.689738927545903</v>
+        <v>2.404389688039231</v>
       </c>
       <c r="H14">
-        <v>1.386536332894252</v>
+        <v>1.276447052643164</v>
       </c>
       <c r="I14">
-        <v>1.285362628417644</v>
+        <v>1.156583410773351</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2323831830372427</v>
+        <v>0.2561598249015304</v>
       </c>
       <c r="M14">
-        <v>0.353558663873315</v>
+        <v>0.7459920228279842</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741924685847437</v>
+        <v>4.409395658758797</v>
       </c>
       <c r="C15">
-        <v>0.3382014336327472</v>
+        <v>1.135283744922447</v>
       </c>
       <c r="D15">
-        <v>0.1122701019580177</v>
+        <v>0.3346163305473908</v>
       </c>
       <c r="E15">
-        <v>0.07216688313033703</v>
+        <v>0.03931370848526861</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.685314389250948</v>
+        <v>2.379671322092946</v>
       </c>
       <c r="H15">
-        <v>1.385160114669191</v>
+        <v>1.265938857768418</v>
       </c>
       <c r="I15">
-        <v>1.284425172505976</v>
+        <v>1.147973149755344</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2319060448287331</v>
+        <v>0.2536391012355494</v>
       </c>
       <c r="M15">
-        <v>0.3514621465706398</v>
+        <v>0.737321930822695</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.666146080634803</v>
+        <v>4.111790048366004</v>
       </c>
       <c r="C16">
-        <v>0.3176690076358</v>
+        <v>1.060525008431256</v>
       </c>
       <c r="D16">
-        <v>0.1065003235488575</v>
+        <v>0.3112556109821014</v>
       </c>
       <c r="E16">
-        <v>0.07211885950265096</v>
+        <v>0.03907752112524765</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.660311197908015</v>
+        <v>2.240582431391118</v>
       </c>
       <c r="H16">
-        <v>1.377512026262394</v>
+        <v>1.206999454544018</v>
       </c>
       <c r="I16">
-        <v>1.279287861197432</v>
+        <v>1.099922593810149</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2292063058168026</v>
+        <v>0.2393628811452118</v>
       </c>
       <c r="M16">
-        <v>0.3394925964115245</v>
+        <v>0.6880170869501328</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.619817009088251</v>
+        <v>3.930908056569649</v>
       </c>
       <c r="C17">
-        <v>0.3050619295579224</v>
+        <v>1.01510763929781</v>
       </c>
       <c r="D17">
-        <v>0.1029733290261845</v>
+        <v>0.2971123270399829</v>
       </c>
       <c r="E17">
-        <v>0.07208996296027337</v>
+        <v>0.03893765318489084</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.645285249460045</v>
+        <v>2.157403326151439</v>
       </c>
       <c r="H17">
-        <v>1.373032391418946</v>
+        <v>1.171918472217101</v>
       </c>
       <c r="I17">
-        <v>1.276345200783254</v>
+        <v>1.07153368201557</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2275809070082317</v>
+        <v>0.2307469482811086</v>
       </c>
       <c r="M17">
-        <v>0.3321895738710055</v>
+        <v>0.6580854950799164</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.593228062015783</v>
+        <v>3.827439249772738</v>
       </c>
       <c r="C18">
-        <v>0.2978065009430111</v>
+        <v>0.9891330683520323</v>
       </c>
       <c r="D18">
-        <v>0.1009492706449606</v>
+        <v>0.2890410911713133</v>
       </c>
       <c r="E18">
-        <v>0.07207354986773318</v>
+        <v>0.03885891776314843</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.636757067837351</v>
+        <v>2.110297546751013</v>
       </c>
       <c r="H18">
-        <v>1.370533591046041</v>
+        <v>1.152111922311235</v>
       </c>
       <c r="I18">
-        <v>1.274729172494858</v>
+        <v>1.055581022262544</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2266573317028389</v>
+        <v>0.2258401760996378</v>
       </c>
       <c r="M18">
-        <v>0.3280037290083584</v>
+        <v>0.6409765383399488</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.584235517110869</v>
+        <v>3.792499703042949</v>
       </c>
       <c r="C19">
-        <v>0.295349212545716</v>
+        <v>0.9803626258282918</v>
       </c>
       <c r="D19">
-        <v>0.1002647407096049</v>
+        <v>0.2863187442654578</v>
       </c>
       <c r="E19">
-        <v>0.07206802830699299</v>
+        <v>0.03883254153406046</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.633889157285438</v>
+        <v>2.09447009357379</v>
       </c>
       <c r="H19">
-        <v>1.369700875662403</v>
+        <v>1.145467281743095</v>
       </c>
       <c r="I19">
-        <v>1.274195129220956</v>
+        <v>1.050242094658785</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2263465668135893</v>
+        <v>0.2241869211446073</v>
       </c>
       <c r="M19">
-        <v>0.3265889913282791</v>
+        <v>0.6352012850978852</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.624742783246063</v>
+        <v>3.950103173028822</v>
       </c>
       <c r="C20">
-        <v>0.306404404134355</v>
+        <v>1.019926717942951</v>
       </c>
       <c r="D20">
-        <v>0.103348309006293</v>
+        <v>0.2986112029418138</v>
       </c>
       <c r="E20">
-        <v>0.07209301757793796</v>
+        <v>0.03895236219737619</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.646872940097381</v>
+        <v>2.166180498450387</v>
       </c>
       <c r="H20">
-        <v>1.373501202613284</v>
+        <v>1.17561396090457</v>
       </c>
       <c r="I20">
-        <v>1.276650527398033</v>
+        <v>1.074516299985575</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2277527626271336</v>
+        <v>0.2316589970545522</v>
       </c>
       <c r="M20">
-        <v>0.3329654756563585</v>
+        <v>0.6612605040463038</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.761538277607144</v>
+        <v>4.48679758626605</v>
       </c>
       <c r="C21">
-        <v>0.3434991462462733</v>
+        <v>1.154735423891935</v>
       </c>
       <c r="D21">
-        <v>0.113763672055498</v>
+        <v>0.3407102677444556</v>
       </c>
       <c r="E21">
-        <v>0.07217945637133028</v>
+        <v>0.03937635739654421</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.691866861673731</v>
+        <v>2.416290170359815</v>
       </c>
       <c r="H21">
-        <v>1.387200493101233</v>
+        <v>1.281509586551266</v>
       </c>
       <c r="I21">
-        <v>1.28581632803531</v>
+        <v>1.160736042254513</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.232612595222335</v>
+        <v>0.257371698485116</v>
       </c>
       <c r="M21">
-        <v>0.354564792605828</v>
+        <v>0.7501566355291232</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.851461211249216</v>
+        <v>4.843767056700528</v>
       </c>
       <c r="C22">
-        <v>0.3677075279857149</v>
+        <v>1.244497886467116</v>
       </c>
       <c r="D22">
-        <v>0.1206124542225382</v>
+        <v>0.3689106025328641</v>
       </c>
       <c r="E22">
-        <v>0.07223779613758197</v>
+        <v>0.03967173564691873</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.722303360986558</v>
+        <v>2.587478051073447</v>
       </c>
       <c r="H22">
-        <v>1.396851030146053</v>
+        <v>1.354567091794621</v>
       </c>
       <c r="I22">
-        <v>1.292493638716664</v>
+        <v>1.220969194753337</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2358896980829854</v>
+        <v>0.2746854320049295</v>
       </c>
       <c r="M22">
-        <v>0.3688118806351213</v>
+        <v>0.8094066960840749</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.803420142231573</v>
+        <v>4.652618454972583</v>
       </c>
       <c r="C23">
-        <v>0.3547901812487453</v>
+        <v>1.196420729091301</v>
       </c>
       <c r="D23">
-        <v>0.1169532625274599</v>
+        <v>0.3537905296683448</v>
       </c>
       <c r="E23">
-        <v>0.0722064900896271</v>
+        <v>0.03951225337472231</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.705963960006159</v>
+        <v>2.495343965430692</v>
       </c>
       <c r="H23">
-        <v>1.39163632630715</v>
+        <v>1.315194393584221</v>
       </c>
       <c r="I23">
-        <v>1.288866706123699</v>
+        <v>1.188438311532167</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2341314024778569</v>
+        <v>0.2653943629324118</v>
       </c>
       <c r="M23">
-        <v>0.3611959763121959</v>
+        <v>0.7776680948932793</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.622515696677283</v>
+        <v>3.941423444942586</v>
       </c>
       <c r="C24">
-        <v>0.3057974946164563</v>
+        <v>1.017747590943088</v>
       </c>
       <c r="D24">
-        <v>0.1031787691775463</v>
+        <v>0.2979333757585323</v>
       </c>
       <c r="E24">
-        <v>0.07209163596286672</v>
+        <v>0.03894570706222567</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.646154801298167</v>
+        <v>2.162210124168155</v>
       </c>
       <c r="H24">
-        <v>1.373289014511641</v>
+        <v>1.173942108765573</v>
       </c>
       <c r="I24">
-        <v>1.276512253350688</v>
+        <v>1.07316671628044</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2276750327900317</v>
+        <v>0.2312465153059406</v>
       </c>
       <c r="M24">
-        <v>0.3326146507154775</v>
+        <v>0.6598247758881541</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.429609820719406</v>
+        <v>3.195565693555693</v>
       </c>
       <c r="C25">
-        <v>0.2527902012148218</v>
+        <v>0.830543320801695</v>
       </c>
       <c r="D25">
-        <v>0.08849504718347134</v>
+        <v>0.24006127969038</v>
       </c>
       <c r="E25">
-        <v>0.07197567837735352</v>
+        <v>0.0383989022522444</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.586005214025107</v>
+        <v>1.830522365914675</v>
       </c>
       <c r="H25">
-        <v>1.356468766955004</v>
+        <v>1.035528080050312</v>
       </c>
       <c r="I25">
-        <v>1.26610780338283</v>
+        <v>0.962962899655885</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2211430998897512</v>
+        <v>0.196248577823944</v>
       </c>
       <c r="M25">
-        <v>0.3023454069628286</v>
+        <v>0.5367105998336541</v>
       </c>
       <c r="N25">
         <v>0</v>
